--- a/Data_forNotebooks/River water level and discharge_Historical/Discharge_observations_namesLocations.xlsx
+++ b/Data_forNotebooks/River water level and discharge_Historical/Discharge_observations_namesLocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\Data_forNotebooks\River water level and discharge_Historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB80E622-3E01-451A-8514-7AF95D9CF15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB065F-15B2-443A-9255-213AC53C1C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53400" yWindow="3600" windowWidth="2424" windowHeight="732" xr2:uid="{16A4EDFC-3097-43D4-9971-24F7095143E1}"/>
+    <workbookView xWindow="2796" yWindow="3702" windowWidth="3600" windowHeight="2784" xr2:uid="{16A4EDFC-3097-43D4-9971-24F7095143E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Ambeghar</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Boriomerga</t>
+  </si>
+  <si>
+    <t>Moved upstream to capture flow before confluence, flows were not as hight as Pargaon</t>
+  </si>
+  <si>
+    <t>moved farther east</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +221,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -314,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -342,12 +354,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,13 +692,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533A578-7DF5-499E-9715-0964DE36CFDE}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
@@ -860,7 +879,7 @@
         <v>73.805000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -871,30 +890,33 @@
         <v>75.326666669999994</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="33">
         <v>18.569444440000002</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="34">
         <v>74.378888889999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="35">
         <v>18.53</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="36">
         <v>73.61</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="29" t="s">
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="14">
@@ -904,7 +926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="18" t="s">
         <v>16</v>
       </c>
@@ -915,18 +937,21 @@
         <v>73.813333330000006</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="16">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="C22" s="17">
-        <v>73.436000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="31">
+        <v>18.579000000000001</v>
+      </c>
+      <c r="C22" s="32">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -937,18 +962,18 @@
         <v>75.394999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="29">
         <v>18.27</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="30">
         <v>73.75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="22" t="s">
         <v>20</v>
       </c>
@@ -959,7 +984,7 @@
         <v>75.007499999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="23" t="s">
         <v>21</v>
       </c>
@@ -970,18 +995,18 @@
         <v>75.594166670000007</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="29">
         <v>17.57</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="30">
         <v>75.41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="22" t="s">
         <v>23</v>
       </c>
@@ -992,29 +1017,29 @@
         <v>75.847777780000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="29">
         <v>18.204999999999998</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="30">
         <v>73.911111109999993</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="29">
         <v>18.305</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="30">
         <v>73.66</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="22" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1050,7 @@
         <v>75.885000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="18" t="s">
         <v>31</v>
       </c>

--- a/Data_forNotebooks/River water level and discharge_Historical/Discharge_observations_namesLocations.xlsx
+++ b/Data_forNotebooks/River water level and discharge_Historical/Discharge_observations_namesLocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\Data_forNotebooks\River water level and discharge_Historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB065F-15B2-443A-9255-213AC53C1C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9087FAD1-ED9A-40F4-BF94-1ECE840C30AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="3702" windowWidth="3600" windowHeight="2784" xr2:uid="{16A4EDFC-3097-43D4-9971-24F7095143E1}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{16A4EDFC-3097-43D4-9971-24F7095143E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>tc={D5B7E573-23D2-43B4-8C56-ADC0EDE767BE}</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{D5B7E573-23D2-43B4-8C56-ADC0EDE767BE}">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{D5B7E573-23D2-43B4-8C56-ADC0EDE767BE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Ambeghar</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>moved farther east</t>
+  </si>
+  <si>
+    <t>Not located</t>
+  </si>
+  <si>
+    <t>poor observations</t>
   </si>
 </sst>
 </file>
@@ -684,7 +690,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C19" dT="2019-07-10T12:57:34.20" personId="{946BEBF0-83C4-4BD7-B2BD-56F7D19250D8}" id="{D5B7E573-23D2-43B4-8C56-ADC0EDE767BE}">
+  <threadedComment ref="C18" dT="2019-07-10T12:57:34.20" personId="{946BEBF0-83C4-4BD7-B2BD-56F7D19250D8}" id="{D5B7E573-23D2-43B4-8C56-ADC0EDE767BE}">
     <text>The original values may be wrong.</text>
   </threadedComment>
 </ThreadedComments>
@@ -692,18 +698,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533A578-7DF5-499E-9715-0964DE36CFDE}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -714,7 +720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +731,7 @@
         <v>73.795000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -736,7 +742,7 @@
         <v>74.259444000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -747,7 +753,7 @@
         <v>73.771666999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -757,307 +763,309 @@
       <c r="C5" s="10">
         <v>75.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5">
+      <c r="F5" s="5">
+        <v>17.630299999999998</v>
+      </c>
+      <c r="G5" s="12">
+        <v>75.819405000000003</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14">
+        <v>18.795000000000002</v>
+      </c>
+      <c r="C6" s="15">
+        <v>73.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16">
+        <v>18.920832999999998</v>
+      </c>
+      <c r="C7" s="17">
+        <v>73.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19">
+        <v>18.504999999999999</v>
+      </c>
+      <c r="C8" s="20">
+        <v>73.834999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21">
+        <v>18.105</v>
+      </c>
+      <c r="C9" s="12">
+        <v>73.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21">
+        <v>18.48</v>
+      </c>
+      <c r="C10" s="12">
+        <v>74.576388890000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>18.545000000000002</v>
+      </c>
+      <c r="C11" s="20">
+        <v>74.219166670000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <v>17.286388890000001</v>
+      </c>
+      <c r="C12" s="25">
+        <v>75.637222219999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>18.071666669999999</v>
+      </c>
+      <c r="C13" s="26">
+        <v>74.406944440000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="21">
+        <v>17.972222219999999</v>
+      </c>
+      <c r="C14" s="12">
+        <v>75.139166669999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16">
+        <v>18.704999999999998</v>
+      </c>
+      <c r="C15" s="17">
+        <v>73.805000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="21">
+        <v>17.695</v>
+      </c>
+      <c r="C16" s="12">
+        <v>75.326666669999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="33">
+        <v>18.569444440000002</v>
+      </c>
+      <c r="C17" s="34">
+        <v>74.378888889999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="35">
+        <v>18.53</v>
+      </c>
+      <c r="C18" s="36">
+        <v>73.61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="C19" s="15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="19">
+        <v>18.57</v>
+      </c>
+      <c r="C20" s="20">
+        <v>73.813333330000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="31">
+        <v>18.579000000000001</v>
+      </c>
+      <c r="C21" s="32">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>18.297222000000001</v>
+      </c>
+      <c r="C22" s="12">
+        <v>75.394999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="29">
+        <v>18.27</v>
+      </c>
+      <c r="C23" s="30">
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="21">
+        <v>17.911388890000001</v>
+      </c>
+      <c r="C24" s="12">
+        <v>75.007499999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="29">
+        <v>17.57</v>
+      </c>
+      <c r="C25" s="30">
+        <v>75.41</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="24">
+        <v>17.36861111</v>
+      </c>
+      <c r="G25" s="25">
+        <v>75.594166670000007</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <v>17.41305556</v>
+      </c>
+      <c r="C26" s="26">
+        <v>75.847777780000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="29">
+        <v>18.204999999999998</v>
+      </c>
+      <c r="C27" s="30">
+        <v>73.911111109999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="29">
+        <v>18.305</v>
+      </c>
+      <c r="C28" s="30">
+        <v>73.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="21">
         <v>17.53</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C29" s="12">
         <v>75.885000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="14">
-        <v>18.795000000000002</v>
-      </c>
-      <c r="C7" s="15">
-        <v>73.53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="16">
-        <v>18.920832999999998</v>
-      </c>
-      <c r="C8" s="17">
-        <v>73.83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="19">
-        <v>18.504999999999999</v>
-      </c>
-      <c r="C9" s="20">
-        <v>73.834999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="21">
-        <v>18.105</v>
-      </c>
-      <c r="C10" s="12">
-        <v>73.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21">
-        <v>18.48</v>
-      </c>
-      <c r="C11" s="12">
-        <v>74.576388890000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="19">
-        <v>18.545000000000002</v>
-      </c>
-      <c r="C12" s="20">
-        <v>74.219166670000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="24">
-        <v>17.286388890000001</v>
-      </c>
-      <c r="C13" s="25">
-        <v>75.637222219999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5">
-        <v>18.071666669999999</v>
-      </c>
-      <c r="C14" s="26">
-        <v>74.406944440000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="21">
-        <v>17.972222219999999</v>
-      </c>
-      <c r="C15" s="12">
-        <v>75.139166669999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="16">
-        <v>18.704999999999998</v>
-      </c>
-      <c r="C16" s="17">
-        <v>73.805000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21">
-        <v>17.695</v>
-      </c>
-      <c r="C17" s="12">
-        <v>75.326666669999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="33">
-        <v>18.569444440000002</v>
-      </c>
-      <c r="C18" s="34">
-        <v>74.378888889999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="35">
-        <v>18.53</v>
-      </c>
-      <c r="C19" s="36">
-        <v>73.61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="14">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="C20" s="15">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="19">
-        <v>18.57</v>
-      </c>
-      <c r="C21" s="20">
-        <v>73.813333330000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="31">
-        <v>18.579000000000001</v>
-      </c>
-      <c r="C22" s="32">
-        <v>74.319999999999993</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="5">
-        <v>18.297222000000001</v>
-      </c>
-      <c r="C23" s="12">
-        <v>75.394999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="29">
-        <v>18.27</v>
-      </c>
-      <c r="C24" s="30">
-        <v>73.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="21">
-        <v>17.911388890000001</v>
-      </c>
-      <c r="C25" s="12">
-        <v>75.007499999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="24">
-        <v>17.36861111</v>
-      </c>
-      <c r="C26" s="25">
-        <v>75.594166670000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="29">
-        <v>17.57</v>
-      </c>
-      <c r="C27" s="30">
-        <v>75.41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="5">
-        <v>17.41305556</v>
-      </c>
-      <c r="C28" s="26">
-        <v>75.847777780000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="29">
-        <v>18.204999999999998</v>
-      </c>
-      <c r="C29" s="30">
-        <v>73.911111109999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="29">
-        <v>18.305</v>
-      </c>
-      <c r="C30" s="30">
-        <v>73.66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="21">
-        <v>17.53</v>
-      </c>
-      <c r="C31" s="12">
-        <v>75.885000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="18" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B30" s="19">
         <v>18.454999999999998</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C30" s="20">
         <v>73.62</v>
       </c>
     </row>
